--- a/ValidInputBatch3_ra.xlsx
+++ b/ValidInputBatch3_ra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Sudhakar\1.Scrapy\1.upwork\UP54-CONN\Scrapping Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F02FE4-3507-4A16-B425-3A21B42EF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0366B19A-10C4-4292-9945-1A4BBC44506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4573016-6CC8-466F-8B7D-58146C17529F}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
